--- a/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 6,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 2,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 4,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 7,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 3,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 6,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,75%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,38; 32,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,54; 33,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 60,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,06; 23,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,67; 45,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,8; 78,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,96; 19,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 31,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,73; 59,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 3,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 2,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 2,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 1,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,62; 53,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,98; 172,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,87; 158,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; 41,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 140,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 124,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,65; 30,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,55; 120,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,7; 114,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; -0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 2,12</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,57; 151,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,29; 249,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; 302,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 81,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,78; 371,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,89; 193,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,92; 37,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; 191,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,45; 198,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 0,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 0,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 0,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,01; 18,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 37,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 30,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,22; 11,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,58; 23,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; 20,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; 11,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 23,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 21,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 6,45</t>
+          <t>-0,44; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,64</t>
+          <t>2,26; 7,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,26</t>
+          <t>1,82; 5,98</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 60,1</t>
+          <t>-3,27; 57,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 78,71</t>
+          <t>17,93; 76,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 59,31</t>
+          <t>14,86; 56,3</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,85</t>
+          <t>-0,09; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,52</t>
+          <t>-0,63; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,88</t>
+          <t>0,13; 1,59</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>43,71%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,87; 158,97</t>
+          <t>-1,01; 127,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 124,25</t>
+          <t>-27,93; 104,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 114,37</t>
+          <t>5,52; 94,73</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,49</t>
+          <t>-0,22; 3,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,45</t>
+          <t>-1,56; 1,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,12</t>
+          <t>-0,16; 2,14</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>55,09%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 302,68</t>
+          <t>-9,07; 301,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,89; 193,57</t>
+          <t>-54,8; 203,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 198,52</t>
+          <t>-7,09; 205,23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,5</t>
+          <t>-1,49; 1,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,95</t>
+          <t>-1,49; 0,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,03</t>
+          <t>-1,03; 0,63</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-7,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 30,71</t>
+          <t>-24,2; 21,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 20,96</t>
+          <t>-26,25; 12,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 21,16</t>
+          <t>-18,14; 12,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,65</t>
+          <t>-2,23; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,56</t>
+          <t>-2,2; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 6,29</t>
+          <t>-0,3; 6,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,32</t>
+          <t>-2,71; 2,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,57</t>
+          <t>-0,97; 4,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,37</t>
+          <t>2,28; 7,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,07</t>
+          <t>-1,78; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,27</t>
+          <t>-1,09; 3,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,98</t>
+          <t>1,96; 6,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 32,19</t>
+          <t>-16,69; 36,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 33,03</t>
+          <t>-16,02; 33,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 57,89</t>
+          <t>-2,23; 58,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 23,71</t>
+          <t>-22,29; 23,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 45,68</t>
+          <t>-7,35; 44,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 76,15</t>
+          <t>18,88; 74,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 19,14</t>
+          <t>-14,65; 20,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 31,06</t>
+          <t>-8,61; 31,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 56,3</t>
+          <t>15,14; 57,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,99</t>
+          <t>-0,96; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,13</t>
+          <t>0,84; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,38</t>
+          <t>0,06; 2,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,49</t>
+          <t>-1,28; 0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,74</t>
+          <t>-0,31; 1,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,32</t>
+          <t>-0,43; 1,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,5</t>
+          <t>-0,8; 0,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,08</t>
+          <t>0,6; 2,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,59</t>
+          <t>-0,02; 1,63</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 53,41</t>
+          <t>-34,49; 54,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,98; 172,55</t>
+          <t>29,77; 166,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 127,28</t>
+          <t>2,4; 135,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 41,99</t>
+          <t>-56,89; 45,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 140,15</t>
+          <t>-16,6; 143,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 104,71</t>
+          <t>-20,86; 99,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,65; 30,65</t>
+          <t>-33,7; 32,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 120,71</t>
+          <t>24,5; 118,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 94,73</t>
+          <t>-0,81; 97,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,7</t>
+          <t>-2,25; 1,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,25</t>
+          <t>-0,95; 3,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,42</t>
+          <t>-0,12; 3,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; -0,04</t>
+          <t>-2,7; 0,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,02</t>
+          <t>-0,79; 3,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,54</t>
+          <t>-1,49; 1,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,35</t>
+          <t>-1,81; 0,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,36</t>
+          <t>-0,39; 2,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,14</t>
+          <t>-0,17; 2,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,57; 151,44</t>
+          <t>-72,72; 138,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 249,57</t>
+          <t>-35,83; 280,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 301,3</t>
+          <t>-7,61; 298,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 81,02</t>
+          <t>-100,0; 55,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 371,82</t>
+          <t>-40,03; 354,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 203,67</t>
+          <t>-50,09; 249,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,92; 37,41</t>
+          <t>-74,25; 43,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 191,91</t>
+          <t>-18,3; 195,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 205,23</t>
+          <t>-8,34; 171,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,9</t>
+          <t>-1,17; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,8</t>
+          <t>-0,45; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,05</t>
+          <t>-1,39; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,51</t>
+          <t>-1,57; 0,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,12</t>
+          <t>-1,11; 1,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,62</t>
+          <t>-1,51; 0,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,52</t>
+          <t>-1,03; 0,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,17</t>
+          <t>-0,58; 1,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,63</t>
+          <t>-1,03; 0,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 18,16</t>
+          <t>-20,1; 19,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 37,92</t>
+          <t>-7,6; 37,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 21,21</t>
+          <t>-23,03; 22,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 11,11</t>
+          <t>-27,54; 10,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 23,44</t>
+          <t>-18,39; 23,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 12,98</t>
+          <t>-26,12; 12,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 11,19</t>
+          <t>-17,94; 8,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 23,13</t>
+          <t>-9,73; 21,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 12,61</t>
+          <t>-18,24; 12,3</t>
         </is>
       </c>
     </row>
